--- a/IMPORTANT/TOY WORLD.xlsx
+++ b/IMPORTANT/TOY WORLD.xlsx
@@ -1076,8 +1076,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,11 +1161,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>98892</v>
+        <v>48892</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1177,15 +1177,19 @@
       <c r="D6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>44590</v>
+      </c>
+      <c r="G6" s="8">
+        <v>50000</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>99142</v>
+        <v>49142</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44585</v>
+        <v>44590</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1201,11 +1205,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>162777</v>
+        <v>112777</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1221,11 +1225,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>162877</v>
+        <v>112877</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44585</v>
+        <v>44590</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,11 +1241,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>162877</v>
+        <v>112877</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44585</v>
+        <v>44590</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,11 +1257,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>162877</v>
+        <v>112877</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44590</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,11 +1273,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>162877</v>
+        <v>112877</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44590</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1285,11 +1289,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>162877</v>
+        <v>112877</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44590</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1301,11 +1305,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>162877</v>
+        <v>112877</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44590</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,11 +1321,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>162877</v>
+        <v>112877</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44590</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,11 +1337,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>162877</v>
+        <v>112877</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44590</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,11 +1353,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>162877</v>
+        <v>112877</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44590</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,11 +1369,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>162877</v>
+        <v>112877</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44590</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,11 +1385,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>162877</v>
+        <v>112877</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44590</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,11 +1401,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>162877</v>
+        <v>112877</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44590</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,11 +1417,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>162877</v>
+        <v>112877</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44590</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,11 +1433,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>162877</v>
+        <v>112877</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44585</v>
+        <v>44590</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,11 +1449,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>162877</v>
+        <v>112877</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44590</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,11 +1465,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>162877</v>
+        <v>112877</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44590</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,11 +1481,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>162877</v>
+        <v>112877</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44590</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,11 +1497,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>162877</v>
+        <v>112877</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44590</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,11 +1513,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>162877</v>
+        <v>112877</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44590</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,11 +1529,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>162877</v>
+        <v>112877</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44590</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,11 +1545,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>162877</v>
+        <v>112877</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44590</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,11 +1561,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>162877</v>
+        <v>112877</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44590</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,11 +1577,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>162877</v>
+        <v>112877</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44590</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,11 +1593,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>162877</v>
+        <v>112877</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44590</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,11 +1609,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>162877</v>
+        <v>112877</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44590</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1621,11 +1625,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>162877</v>
+        <v>112877</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44590</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1638,11 +1642,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>162877</v>
+        <v>112877</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44585</v>
+        <v>44590</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1671,7 +1675,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1694,7 +1698,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>162877</v>
+        <v>112877</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY WORLD.xlsx
+++ b/IMPORTANT/TOY WORLD.xlsx
@@ -1165,7 +1165,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44590</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44590</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44590</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44590</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44590</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/TOY WORLD.xlsx
+++ b/IMPORTANT/TOY WORLD.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1229,23 +1229,27 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="52"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="52">
+        <v>44590</v>
+      </c>
+      <c r="B9" s="13">
+        <v>139381</v>
+      </c>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>112877</v>
+        <v>252258</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44593</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1257,11 +1261,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>112877</v>
+        <v>252258</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1273,11 +1277,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>112877</v>
+        <v>252258</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1289,11 +1293,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>112877</v>
+        <v>252258</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1305,11 +1309,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>112877</v>
+        <v>252258</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1321,11 +1325,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>112877</v>
+        <v>252258</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1337,11 +1341,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>112877</v>
+        <v>252258</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1353,11 +1357,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>112877</v>
+        <v>252258</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1369,11 +1373,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>112877</v>
+        <v>252258</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1385,11 +1389,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>112877</v>
+        <v>252258</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1401,11 +1405,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>112877</v>
+        <v>252258</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1417,11 +1421,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>112877</v>
+        <v>252258</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,11 +1437,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>112877</v>
+        <v>252258</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,11 +1453,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>112877</v>
+        <v>252258</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,11 +1469,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>112877</v>
+        <v>252258</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,11 +1485,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>112877</v>
+        <v>252258</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,11 +1501,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>112877</v>
+        <v>252258</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,11 +1517,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>112877</v>
+        <v>252258</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1529,11 +1533,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>112877</v>
+        <v>252258</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,11 +1549,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>112877</v>
+        <v>252258</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1561,11 +1565,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>112877</v>
+        <v>252258</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,11 +1581,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>112877</v>
+        <v>252258</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1593,11 +1597,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>112877</v>
+        <v>252258</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1609,11 +1613,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>112877</v>
+        <v>252258</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1625,11 +1629,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>112877</v>
+        <v>252258</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1642,11 +1646,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>112877</v>
+        <v>252258</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44593</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1667,7 +1671,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>212877</v>
+        <v>352258</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1698,7 +1702,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>112877</v>
+        <v>252258</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY WORLD.xlsx
+++ b/IMPORTANT/TOY WORLD.xlsx
@@ -1165,7 +1165,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44600</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44600</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44600</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1650,7 +1650,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44600</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/TOY WORLD.xlsx
+++ b/IMPORTANT/TOY WORLD.xlsx
@@ -1076,8 +1076,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection sqref="A1:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44607</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44607</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44607</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44607</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44607</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44607</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44607</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44607</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44607</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44607</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44607</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44607</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44607</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44607</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44607</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44607</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44607</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44607</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44607</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44607</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44607</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44607</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44607</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44607</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44607</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44607</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1650,7 +1650,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44607</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/TOY WORLD.xlsx
+++ b/IMPORTANT/TOY WORLD.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>DATE</t>
   </si>
@@ -51,10 +51,10 @@
     <t>HINDUSTAN TOYS</t>
   </si>
   <si>
-    <t>INSURANCE</t>
+    <t>CUSTOMER NAME -TOY WORLD</t>
   </si>
   <si>
-    <t>CUSTOMER NAME -TOY WORLD</t>
+    <t>adjusted</t>
   </si>
 </sst>
 </file>
@@ -1076,8 +1076,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection sqref="A1:I38"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1100,7 +1100,7 @@
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1161,22 +1161,18 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>48892</v>
+        <v>-153016</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="8">
-        <v>250</v>
-      </c>
+      <c r="B6" s="8"/>
       <c r="C6" s="50"/>
-      <c r="D6" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="D6" s="9"/>
       <c r="F6" s="7">
         <v>44590</v>
       </c>
@@ -1185,11 +1181,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>49142</v>
+        <v>-153016</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1201,35 +1197,39 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49">
+        <v>44616</v>
+      </c>
+      <c r="G7" s="16">
+        <v>200000</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>112777</v>
+        <v>-89381</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="16">
-        <v>100</v>
-      </c>
+      <c r="B8" s="16"/>
       <c r="C8" s="19"/>
-      <c r="D8" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="D8" s="18"/>
+      <c r="F8" s="15">
+        <v>44616</v>
+      </c>
+      <c r="G8" s="16">
+        <v>1900</v>
+      </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>112877</v>
+        <v>-89381</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1241,15 +1241,19 @@
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="F9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="16">
+        <v>8</v>
+      </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>252258</v>
+        <v>50000</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1261,11 +1265,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>252258</v>
+        <v>50000</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1277,11 +1281,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>252258</v>
+        <v>50000</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1293,11 +1297,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>252258</v>
+        <v>50000</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1309,11 +1313,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>252258</v>
+        <v>50000</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1325,11 +1329,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>252258</v>
+        <v>50000</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1341,11 +1345,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>252258</v>
+        <v>50000</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1357,11 +1361,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>252258</v>
+        <v>50000</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1373,11 +1377,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>252258</v>
+        <v>50000</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1389,11 +1393,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>252258</v>
+        <v>50000</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,11 +1409,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>252258</v>
+        <v>50000</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1421,11 +1425,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>252258</v>
+        <v>50000</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1437,11 +1441,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>252258</v>
+        <v>50000</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1453,11 +1457,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>252258</v>
+        <v>50000</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1469,11 +1473,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>252258</v>
+        <v>50000</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1485,11 +1489,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>252258</v>
+        <v>50000</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1501,11 +1505,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>252258</v>
+        <v>50000</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1517,11 +1521,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>252258</v>
+        <v>50000</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1533,11 +1537,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>252258</v>
+        <v>50000</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1549,11 +1553,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>252258</v>
+        <v>50000</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1565,11 +1569,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>252258</v>
+        <v>50000</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1581,11 +1585,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>252258</v>
+        <v>50000</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1597,11 +1601,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>252258</v>
+        <v>50000</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1613,11 +1617,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>252258</v>
+        <v>50000</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1629,11 +1633,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>252258</v>
+        <v>50000</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1646,11 +1650,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>252258</v>
+        <v>50000</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1671,7 +1675,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>352258</v>
+        <v>351908</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1679,7 +1683,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>100000</v>
+        <v>301908</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1702,7 +1706,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>252258</v>
+        <v>50000</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY WORLD.xlsx
+++ b/IMPORTANT/TOY WORLD.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>DATE</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>CUSTOMER NAME -TOY WORLD</t>
-  </si>
-  <si>
-    <t>adjusted</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1145,71 +1142,57 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44537</v>
-      </c>
+      <c r="A5" s="7"/>
       <c r="B5" s="8">
-        <v>148892</v>
+        <v>50000</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7">
-        <v>44573</v>
-      </c>
-      <c r="G5" s="8">
-        <v>50000</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-153016</v>
+        <v>50000</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>81</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="7">
+        <v>44617</v>
+      </c>
+      <c r="B6" s="8">
+        <v>26195</v>
+      </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>44590</v>
-      </c>
-      <c r="G6" s="8">
-        <v>50000</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-153016</v>
+        <v>76195</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44618</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49">
-        <v>44573</v>
-      </c>
-      <c r="B7" s="16">
-        <v>63635</v>
-      </c>
+      <c r="A7" s="49"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49">
-        <v>44616</v>
-      </c>
-      <c r="G7" s="16">
-        <v>200000</v>
-      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-89381</v>
+        <v>76195</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1217,43 +1200,31 @@
       <c r="B8" s="16"/>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
-      <c r="F8" s="15">
-        <v>44616</v>
-      </c>
-      <c r="G8" s="16">
-        <v>1900</v>
-      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-89381</v>
+        <v>76195</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="52">
-        <v>44590</v>
-      </c>
-      <c r="B9" s="13">
-        <v>139381</v>
-      </c>
+      <c r="A9" s="52"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
-      <c r="F9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="16">
-        <v>8</v>
-      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>50000</v>
+        <v>76195</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>28</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1265,11 +1236,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>76195</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1281,11 +1252,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>76195</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1297,11 +1268,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>76195</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1313,11 +1284,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>76195</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1329,11 +1300,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>76195</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1345,11 +1316,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>76195</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1361,11 +1332,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>76195</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1377,11 +1348,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>76195</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1393,11 +1364,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>76195</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1409,11 +1380,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>76195</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1425,11 +1396,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>76195</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1441,11 +1412,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>76195</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1457,11 +1428,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>76195</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1473,11 +1444,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>76195</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1489,11 +1460,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>76195</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1505,11 +1476,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>76195</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1521,11 +1492,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>76195</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1537,11 +1508,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>76195</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1553,11 +1524,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>76195</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1569,11 +1540,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>76195</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1585,11 +1556,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>76195</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1601,11 +1572,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>76195</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1617,11 +1588,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>76195</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1633,11 +1604,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>50000</v>
+        <v>76195</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1650,11 +1621,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>76195</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1675,7 +1646,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>351908</v>
+        <v>76195</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1683,7 +1654,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>301908</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1706,7 +1677,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>50000</v>
+        <v>76195</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY WORLD.xlsx
+++ b/IMPORTANT/TOY WORLD.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1166,17 +1166,19 @@
       <c r="B6" s="8">
         <v>26195</v>
       </c>
-      <c r="C6" s="50"/>
+      <c r="C6" s="50">
+        <v>50</v>
+      </c>
       <c r="D6" s="9"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>76195</v>
+        <v>76245</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1188,11 +1190,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>76195</v>
+        <v>76245</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1204,11 +1206,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>76195</v>
+        <v>76245</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1220,11 +1222,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>76195</v>
+        <v>76245</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1236,11 +1238,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>76195</v>
+        <v>76245</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1252,11 +1254,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>76195</v>
+        <v>76245</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1268,11 +1270,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>76195</v>
+        <v>76245</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1284,11 +1286,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>76195</v>
+        <v>76245</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1300,11 +1302,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>76195</v>
+        <v>76245</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1316,11 +1318,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>76195</v>
+        <v>76245</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1332,11 +1334,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>76195</v>
+        <v>76245</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1348,11 +1350,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>76195</v>
+        <v>76245</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1364,11 +1366,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>76195</v>
+        <v>76245</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1380,11 +1382,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>76195</v>
+        <v>76245</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1396,11 +1398,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>76195</v>
+        <v>76245</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1412,11 +1414,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>76195</v>
+        <v>76245</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1428,11 +1430,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>76195</v>
+        <v>76245</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1444,11 +1446,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>76195</v>
+        <v>76245</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1460,11 +1462,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>76195</v>
+        <v>76245</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1476,11 +1478,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>76195</v>
+        <v>76245</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1492,11 +1494,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>76195</v>
+        <v>76245</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1508,11 +1510,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>76195</v>
+        <v>76245</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1524,11 +1526,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>76195</v>
+        <v>76245</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1540,11 +1542,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>76195</v>
+        <v>76245</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1556,11 +1558,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>76195</v>
+        <v>76245</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1572,11 +1574,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>76195</v>
+        <v>76245</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1588,11 +1590,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>76195</v>
+        <v>76245</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1604,11 +1606,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>76195</v>
+        <v>76245</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1621,11 +1623,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>76195</v>
+        <v>76245</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1646,7 +1648,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>76195</v>
+        <v>76245</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1677,7 +1679,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>76195</v>
+        <v>76245</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY WORLD.xlsx
+++ b/IMPORTANT/TOY WORLD.xlsx
@@ -1156,7 +1156,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/TOY WORLD.xlsx
+++ b/IMPORTANT/TOY WORLD.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1148,15 +1148,19 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>44656</v>
+      </c>
+      <c r="G5" s="8">
+        <v>16726</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>50000</v>
+        <v>33274</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44645</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1174,11 +1178,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>76245</v>
+        <v>59519</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1190,11 +1194,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>76245</v>
+        <v>59519</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44645</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1206,11 +1210,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>76245</v>
+        <v>59519</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44645</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1222,11 +1226,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>76245</v>
+        <v>59519</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44645</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1238,11 +1242,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>76245</v>
+        <v>59519</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1254,11 +1258,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>76245</v>
+        <v>59519</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1270,11 +1274,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>76245</v>
+        <v>59519</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1286,11 +1290,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>76245</v>
+        <v>59519</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1302,11 +1306,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>76245</v>
+        <v>59519</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1318,11 +1322,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>76245</v>
+        <v>59519</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1334,11 +1338,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>76245</v>
+        <v>59519</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1350,11 +1354,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>76245</v>
+        <v>59519</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1366,11 +1370,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>76245</v>
+        <v>59519</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1382,11 +1386,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>76245</v>
+        <v>59519</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1398,11 +1402,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>76245</v>
+        <v>59519</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1414,11 +1418,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>76245</v>
+        <v>59519</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44645</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1430,11 +1434,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>76245</v>
+        <v>59519</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1446,11 +1450,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>76245</v>
+        <v>59519</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1462,11 +1466,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>76245</v>
+        <v>59519</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1478,11 +1482,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>76245</v>
+        <v>59519</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1494,11 +1498,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>76245</v>
+        <v>59519</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1510,11 +1514,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>76245</v>
+        <v>59519</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1526,11 +1530,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>76245</v>
+        <v>59519</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1542,11 +1546,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>76245</v>
+        <v>59519</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1558,11 +1562,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>76245</v>
+        <v>59519</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1574,11 +1578,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>76245</v>
+        <v>59519</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1590,11 +1594,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>76245</v>
+        <v>59519</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1606,11 +1610,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>76245</v>
+        <v>59519</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1623,11 +1627,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>76245</v>
+        <v>59519</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44645</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1656,7 +1660,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>16726</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1679,7 +1683,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>76245</v>
+        <v>59519</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY WORLD.xlsx
+++ b/IMPORTANT/TOY WORLD.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1156,11 +1156,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>33274</v>
+        <v>-76726</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44656</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1174,47 +1174,65 @@
         <v>50</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>44656</v>
+      </c>
+      <c r="G6" s="8">
+        <v>60000</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>59519</v>
+        <v>-50481</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>39</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="49">
+        <v>44671</v>
+      </c>
+      <c r="B7" s="16">
+        <v>92035</v>
+      </c>
+      <c r="C7" s="9">
+        <v>150</v>
+      </c>
       <c r="D7" s="51"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49">
+        <v>44698</v>
+      </c>
+      <c r="G7" s="16">
+        <v>50000</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>59519</v>
+        <v>41704</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44656</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="15">
+        <v>44679</v>
+      </c>
+      <c r="B8" s="16">
+        <v>35152</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>59519</v>
+        <v>76856</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44656</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1226,11 +1244,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>59519</v>
+        <v>76856</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44656</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1242,11 +1260,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>59519</v>
+        <v>76856</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44656</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1258,11 +1276,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>59519</v>
+        <v>76856</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44656</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1274,11 +1292,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>59519</v>
+        <v>76856</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44656</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1290,11 +1308,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>59519</v>
+        <v>76856</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44656</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1306,11 +1324,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>59519</v>
+        <v>76856</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44656</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1322,11 +1340,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>59519</v>
+        <v>76856</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44656</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1338,11 +1356,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>59519</v>
+        <v>76856</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44656</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1354,11 +1372,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>59519</v>
+        <v>76856</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44656</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1370,11 +1388,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>59519</v>
+        <v>76856</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44656</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1386,11 +1404,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>59519</v>
+        <v>76856</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44656</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1402,11 +1420,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>59519</v>
+        <v>76856</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44656</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1418,11 +1436,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>59519</v>
+        <v>76856</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44656</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1434,11 +1452,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>59519</v>
+        <v>76856</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44656</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1450,11 +1468,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>59519</v>
+        <v>76856</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44656</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1466,11 +1484,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>59519</v>
+        <v>76856</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44656</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1482,11 +1500,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>59519</v>
+        <v>76856</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44656</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1498,11 +1516,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>59519</v>
+        <v>76856</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44656</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1514,11 +1532,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>59519</v>
+        <v>76856</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44656</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1530,11 +1548,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>59519</v>
+        <v>76856</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44656</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1546,11 +1564,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>59519</v>
+        <v>76856</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44656</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1562,11 +1580,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>59519</v>
+        <v>76856</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44656</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1578,11 +1596,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>59519</v>
+        <v>76856</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44656</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1594,11 +1612,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>59519</v>
+        <v>76856</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44656</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1610,11 +1628,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>59519</v>
+        <v>76856</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44656</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1627,11 +1645,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>59519</v>
+        <v>76856</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44656</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1652,7 +1670,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>76245</v>
+        <v>203582</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1660,7 +1678,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>16726</v>
+        <v>126726</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1683,7 +1701,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>59519</v>
+        <v>76856</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY WORLD.xlsx
+++ b/IMPORTANT/TOY WORLD.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/TOY WORLD.xlsx
+++ b/IMPORTANT/TOY WORLD.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44713</v>
+        <v>44718</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1196,9 +1196,7 @@
       <c r="B7" s="16">
         <v>92035</v>
       </c>
-      <c r="C7" s="9">
-        <v>150</v>
-      </c>
+      <c r="C7" s="9"/>
       <c r="D7" s="51"/>
       <c r="F7" s="49">
         <v>44698</v>
@@ -1208,11 +1206,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>41704</v>
+        <v>41554</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1228,11 +1226,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>76856</v>
+        <v>76706</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1244,11 +1242,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>76856</v>
+        <v>76706</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44713</v>
+        <v>44718</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1260,11 +1258,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>76856</v>
+        <v>76706</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44718</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1276,11 +1274,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>76856</v>
+        <v>76706</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44718</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1292,11 +1290,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>76856</v>
+        <v>76706</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44718</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1308,11 +1306,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>76856</v>
+        <v>76706</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44718</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1324,11 +1322,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>76856</v>
+        <v>76706</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44718</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1340,11 +1338,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>76856</v>
+        <v>76706</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44718</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1356,11 +1354,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>76856</v>
+        <v>76706</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44718</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1372,11 +1370,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>76856</v>
+        <v>76706</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44718</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1388,11 +1386,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>76856</v>
+        <v>76706</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44718</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1404,11 +1402,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>76856</v>
+        <v>76706</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44718</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1420,11 +1418,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>76856</v>
+        <v>76706</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44718</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1436,11 +1434,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>76856</v>
+        <v>76706</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44713</v>
+        <v>44718</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1452,11 +1450,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>76856</v>
+        <v>76706</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44718</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1468,11 +1466,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>76856</v>
+        <v>76706</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44718</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1484,11 +1482,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>76856</v>
+        <v>76706</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44718</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1500,11 +1498,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>76856</v>
+        <v>76706</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44718</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1516,11 +1514,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>76856</v>
+        <v>76706</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44718</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1532,11 +1530,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>76856</v>
+        <v>76706</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44718</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1548,11 +1546,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>76856</v>
+        <v>76706</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44718</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1564,11 +1562,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>76856</v>
+        <v>76706</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44718</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1580,11 +1578,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>76856</v>
+        <v>76706</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44718</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1596,11 +1594,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>76856</v>
+        <v>76706</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44718</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1612,11 +1610,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>76856</v>
+        <v>76706</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44718</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1628,11 +1626,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>76856</v>
+        <v>76706</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44718</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1645,11 +1643,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>76856</v>
+        <v>76706</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44713</v>
+        <v>44718</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1670,7 +1668,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>203582</v>
+        <v>203432</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1701,7 +1699,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>76856</v>
+        <v>76706</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY WORLD.xlsx
+++ b/IMPORTANT/TOY WORLD.xlsx
@@ -1160,7 +1160,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44718</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44718</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44718</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44718</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44718</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44718</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44718</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44718</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44718</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44718</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44718</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44718</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44718</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44718</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44718</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44718</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44718</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44718</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44718</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44718</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44718</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44718</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,7 +1582,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44718</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44718</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44718</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44718</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44718</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/TOY WORLD.xlsx
+++ b/IMPORTANT/TOY WORLD.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>DATE</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>CUSTOMER NAME -TOY WORLD</t>
+  </si>
+  <si>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1142,95 +1145,75 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
+      <c r="A5" s="7">
+        <v>44726</v>
+      </c>
       <c r="B5" s="8">
-        <v>50000</v>
+        <v>131180</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7">
-        <v>44656</v>
-      </c>
-      <c r="G5" s="8">
-        <v>16726</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-76726</v>
+        <v>131180</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44723</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7">
-        <v>44617</v>
-      </c>
+      <c r="A6" s="7"/>
       <c r="B6" s="8">
-        <v>26195</v>
-      </c>
-      <c r="C6" s="50">
-        <v>50</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>44656</v>
-      </c>
-      <c r="G6" s="8">
-        <v>60000</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="C6" s="50"/>
+      <c r="D6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-50481</v>
+        <v>131430</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>106</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49">
-        <v>44671</v>
-      </c>
-      <c r="B7" s="16">
-        <v>92035</v>
-      </c>
+      <c r="A7" s="49"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49">
-        <v>44698</v>
-      </c>
-      <c r="G7" s="16">
-        <v>50000</v>
-      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>41554</v>
+        <v>131430</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>52</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15">
-        <v>44679</v>
-      </c>
-      <c r="B8" s="16">
-        <v>35152</v>
-      </c>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>76706</v>
+        <v>131430</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1242,11 +1225,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>76706</v>
+        <v>131430</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44723</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1258,11 +1241,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>76706</v>
+        <v>131430</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1274,11 +1257,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>76706</v>
+        <v>131430</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1290,11 +1273,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>76706</v>
+        <v>131430</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1306,11 +1289,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>76706</v>
+        <v>131430</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1322,11 +1305,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>76706</v>
+        <v>131430</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1338,11 +1321,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>76706</v>
+        <v>131430</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1354,11 +1337,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>76706</v>
+        <v>131430</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1370,11 +1353,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>76706</v>
+        <v>131430</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1386,11 +1369,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>76706</v>
+        <v>131430</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1402,11 +1385,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>76706</v>
+        <v>131430</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1418,11 +1401,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>76706</v>
+        <v>131430</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1434,11 +1417,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>76706</v>
+        <v>131430</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44723</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1450,11 +1433,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>76706</v>
+        <v>131430</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1466,11 +1449,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>76706</v>
+        <v>131430</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1482,11 +1465,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>76706</v>
+        <v>131430</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1498,11 +1481,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>76706</v>
+        <v>131430</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1514,11 +1497,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>76706</v>
+        <v>131430</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1530,11 +1513,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>76706</v>
+        <v>131430</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1546,11 +1529,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>76706</v>
+        <v>131430</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1562,11 +1545,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>76706</v>
+        <v>131430</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1578,11 +1561,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>76706</v>
+        <v>131430</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1594,11 +1577,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>76706</v>
+        <v>131430</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1610,11 +1593,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>76706</v>
+        <v>131430</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1626,11 +1609,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>76706</v>
+        <v>131430</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1643,11 +1626,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>76706</v>
+        <v>131430</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44723</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1668,7 +1651,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>203432</v>
+        <v>131430</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1676,7 +1659,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>126726</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1699,7 +1682,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>76706</v>
+        <v>131430</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY WORLD.xlsx
+++ b/IMPORTANT/TOY WORLD.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1153,15 +1153,19 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>44755</v>
+      </c>
+      <c r="G5" s="8">
+        <v>12000</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>131180</v>
+        <v>119180</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1177,11 +1181,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>131430</v>
+        <v>119430</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44747</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1193,11 +1197,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>131430</v>
+        <v>119430</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44747</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1209,11 +1213,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>131430</v>
+        <v>119430</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44747</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1225,11 +1229,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>131430</v>
+        <v>119430</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44747</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1241,11 +1245,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>131430</v>
+        <v>119430</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1257,11 +1261,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>131430</v>
+        <v>119430</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1273,11 +1277,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>131430</v>
+        <v>119430</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1289,11 +1293,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>131430</v>
+        <v>119430</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1305,11 +1309,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>131430</v>
+        <v>119430</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1321,11 +1325,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>131430</v>
+        <v>119430</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1337,11 +1341,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>131430</v>
+        <v>119430</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1353,11 +1357,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>131430</v>
+        <v>119430</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1369,11 +1373,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>131430</v>
+        <v>119430</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1385,11 +1389,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>131430</v>
+        <v>119430</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1401,11 +1405,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>131430</v>
+        <v>119430</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1417,11 +1421,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>131430</v>
+        <v>119430</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44747</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,11 +1437,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>131430</v>
+        <v>119430</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,11 +1453,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>131430</v>
+        <v>119430</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,11 +1469,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>131430</v>
+        <v>119430</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,11 +1485,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>131430</v>
+        <v>119430</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,11 +1501,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>131430</v>
+        <v>119430</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,11 +1517,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>131430</v>
+        <v>119430</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1529,11 +1533,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>131430</v>
+        <v>119430</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,11 +1549,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>131430</v>
+        <v>119430</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1561,11 +1565,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>131430</v>
+        <v>119430</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,11 +1581,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>131430</v>
+        <v>119430</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1593,11 +1597,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>131430</v>
+        <v>119430</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1609,11 +1613,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>131430</v>
+        <v>119430</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1626,11 +1630,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>131430</v>
+        <v>119430</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44747</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1659,7 +1663,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1682,7 +1686,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>131430</v>
+        <v>119430</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY WORLD.xlsx
+++ b/IMPORTANT/TOY WORLD.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I38"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,47 +1161,55 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>119180</v>
+        <v>50000</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>34</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7"/>
+      <c r="A6" s="7">
+        <v>44763</v>
+      </c>
       <c r="B6" s="8">
-        <v>250</v>
+        <v>22160</v>
       </c>
       <c r="C6" s="50"/>
-      <c r="D6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="F6" s="7">
+        <v>44762</v>
+      </c>
+      <c r="G6" s="8">
+        <v>69180</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>119430</v>
+        <v>72160</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44760</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A7" s="49"/>
-      <c r="B7" s="16"/>
+      <c r="B7" s="16">
+        <v>50</v>
+      </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="51"/>
+      <c r="D7" s="51" t="s">
+        <v>12</v>
+      </c>
       <c r="F7" s="49"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>119430</v>
+        <v>72210</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1213,11 +1221,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>119430</v>
+        <v>72210</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1229,11 +1237,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>119430</v>
+        <v>72210</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1245,11 +1253,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>119430</v>
+        <v>72210</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1261,11 +1269,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>119430</v>
+        <v>72210</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1277,11 +1285,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>119430</v>
+        <v>72210</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1293,11 +1301,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>119430</v>
+        <v>72210</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1309,11 +1317,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>119430</v>
+        <v>72210</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1325,11 +1333,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>119430</v>
+        <v>72210</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1341,11 +1349,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>119430</v>
+        <v>72210</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1357,11 +1365,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>119430</v>
+        <v>72210</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1373,11 +1381,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>119430</v>
+        <v>72210</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1389,11 +1397,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>119430</v>
+        <v>72210</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,11 +1413,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>119430</v>
+        <v>72210</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1421,11 +1429,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>119430</v>
+        <v>72210</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1437,11 +1445,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>119430</v>
+        <v>72210</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1453,11 +1461,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>119430</v>
+        <v>72210</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1469,11 +1477,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>119430</v>
+        <v>72210</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1485,11 +1493,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>119430</v>
+        <v>72210</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1501,11 +1509,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>119430</v>
+        <v>72210</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1517,11 +1525,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>119430</v>
+        <v>72210</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1533,11 +1541,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>119430</v>
+        <v>72210</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1549,11 +1557,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>119430</v>
+        <v>72210</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1565,11 +1573,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>119430</v>
+        <v>72210</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1581,11 +1589,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>119430</v>
+        <v>72210</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1597,11 +1605,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>119430</v>
+        <v>72210</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1613,11 +1621,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>119430</v>
+        <v>72210</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1630,11 +1638,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>119430</v>
+        <v>72210</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44760</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1655,7 +1663,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>131430</v>
+        <v>153390</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1663,7 +1671,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>12000</v>
+        <v>81180</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1686,7 +1694,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>119430</v>
+        <v>72210</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY WORLD.xlsx
+++ b/IMPORTANT/TOY WORLD.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,11 +1161,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>50000</v>
+        <v>-5091</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1185,11 +1185,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>72160</v>
+        <v>17069</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1201,15 +1201,19 @@
       <c r="D7" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49">
+        <v>44798</v>
+      </c>
+      <c r="G7" s="16">
+        <v>50000</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>72210</v>
+        <v>17119</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1217,15 +1221,19 @@
       <c r="B8" s="16"/>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="15">
+        <v>44800</v>
+      </c>
+      <c r="G8" s="16">
+        <v>5091</v>
+      </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>72210</v>
+        <v>17119</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,11 +1245,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>72210</v>
+        <v>17119</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,11 +1261,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>72210</v>
+        <v>17119</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,11 +1277,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>72210</v>
+        <v>17119</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1285,11 +1293,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>72210</v>
+        <v>17119</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1301,11 +1309,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>72210</v>
+        <v>17119</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,11 +1325,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>72210</v>
+        <v>17119</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,11 +1341,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>72210</v>
+        <v>17119</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,11 +1357,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>72210</v>
+        <v>17119</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,11 +1373,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>72210</v>
+        <v>17119</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,11 +1389,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>72210</v>
+        <v>17119</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,11 +1405,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>72210</v>
+        <v>17119</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,11 +1421,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>72210</v>
+        <v>17119</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,11 +1437,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>72210</v>
+        <v>17119</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,11 +1453,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>72210</v>
+        <v>17119</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,11 +1469,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>72210</v>
+        <v>17119</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,11 +1485,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>72210</v>
+        <v>17119</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,11 +1501,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>72210</v>
+        <v>17119</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,11 +1517,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>72210</v>
+        <v>17119</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,11 +1533,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>72210</v>
+        <v>17119</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,11 +1549,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>72210</v>
+        <v>17119</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,11 +1565,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>72210</v>
+        <v>17119</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,11 +1581,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>72210</v>
+        <v>17119</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,11 +1597,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>72210</v>
+        <v>17119</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,11 +1613,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>72210</v>
+        <v>17119</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1621,11 +1629,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>72210</v>
+        <v>17119</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1638,11 +1646,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>72210</v>
+        <v>17119</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44795</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1671,7 +1679,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>81180</v>
+        <v>136271</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1694,7 +1702,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>72210</v>
+        <v>17119</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY WORLD.xlsx
+++ b/IMPORTANT/TOY WORLD.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>DATE</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>CUSTOMER NAME -TOY WORLD</t>
-  </si>
-  <si>
-    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A5" sqref="A5:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1145,75 +1142,51 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44726</v>
-      </c>
-      <c r="B5" s="8">
-        <v>131180</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7">
-        <v>44755</v>
-      </c>
-      <c r="G5" s="8">
-        <v>12000</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-5091</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>74</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7">
-        <v>44763</v>
-      </c>
-      <c r="B6" s="8">
-        <v>22160</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>44762</v>
-      </c>
-      <c r="G6" s="8">
-        <v>69180</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>17069</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>37</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A7" s="49"/>
-      <c r="B7" s="16">
-        <v>50</v>
-      </c>
+      <c r="B7" s="16"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="49">
-        <v>44798</v>
-      </c>
-      <c r="G7" s="16">
-        <v>50000</v>
-      </c>
+      <c r="D7" s="51"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>17119</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1221,19 +1194,15 @@
       <c r="B8" s="16"/>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
-      <c r="F8" s="15">
-        <v>44800</v>
-      </c>
-      <c r="G8" s="16">
-        <v>5091</v>
-      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>17119</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1245,11 +1214,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>17119</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1261,11 +1230,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>17119</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1277,11 +1246,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>17119</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1293,11 +1262,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>17119</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1309,11 +1278,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>17119</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1325,11 +1294,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>17119</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1341,11 +1310,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>17119</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1357,11 +1326,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>17119</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1373,11 +1342,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>17119</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1389,11 +1358,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>17119</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,11 +1374,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>17119</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1421,11 +1390,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>17119</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1437,11 +1406,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>17119</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1453,11 +1422,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>17119</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1469,11 +1438,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>17119</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1485,11 +1454,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>17119</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1501,11 +1470,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>17119</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1517,11 +1486,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>17119</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1533,11 +1502,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>17119</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1549,11 +1518,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>17119</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1565,11 +1534,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>17119</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1581,11 +1550,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>17119</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1597,11 +1566,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>17119</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1613,11 +1582,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>17119</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1629,11 +1598,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>17119</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1646,11 +1615,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>17119</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44800</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1671,7 +1640,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>153390</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1679,7 +1648,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>136271</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1702,7 +1671,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>17119</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY WORLD.xlsx
+++ b/IMPORTANT/TOY WORLD.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>DATE</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>CUSTOMER NAME -TOY WORLD</t>
+  </si>
+  <si>
+    <t>INSURANCE</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1142,35 +1145,47 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="7">
+        <v>44803</v>
+      </c>
+      <c r="B5" s="8">
+        <v>26459</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>44824</v>
+      </c>
+      <c r="G5" s="8">
+        <v>3073</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>23386</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44806</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8">
+        <v>50</v>
+      </c>
       <c r="C6" s="50"/>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>0</v>
+        <v>23436</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1182,11 +1197,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>0</v>
+        <v>23436</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1198,11 +1213,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>0</v>
+        <v>23436</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1214,11 +1229,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>23436</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,11 +1245,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23436</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1246,11 +1261,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23436</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1262,11 +1277,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23436</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1278,11 +1293,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23436</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1294,11 +1309,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23436</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1310,11 +1325,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23436</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1326,11 +1341,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23436</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1342,11 +1357,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23436</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1358,11 +1373,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23436</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,11 +1389,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23436</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1390,11 +1405,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23436</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1406,11 +1421,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23436</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,11 +1437,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23436</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1438,11 +1453,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23436</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1454,11 +1469,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23436</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,11 +1485,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23436</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,11 +1501,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23436</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,11 +1517,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23436</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,11 +1533,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23436</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,11 +1549,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23436</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1550,11 +1565,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23436</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,11 +1581,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23436</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,11 +1597,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23436</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,11 +1613,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>0</v>
+        <v>23436</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1615,11 +1630,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23436</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1640,7 +1655,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>0</v>
+        <v>26509</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1648,7 +1663,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>3073</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1671,7 +1686,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>0</v>
+        <v>23436</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY WORLD.xlsx
+++ b/IMPORTANT/TOY WORLD.xlsx
@@ -1165,7 +1165,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44824</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44824</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44824</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44824</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44824</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44824</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/TOY WORLD.xlsx
+++ b/IMPORTANT/TOY WORLD.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection sqref="A1:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1149,7 +1149,7 @@
         <v>44803</v>
       </c>
       <c r="B5" s="8">
-        <v>26459</v>
+        <v>29459</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -1161,11 +1161,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>23386</v>
+        <v>26386</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1181,11 +1181,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>23436</v>
+        <v>26436</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1197,11 +1197,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>23436</v>
+        <v>26436</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1213,11 +1213,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>23436</v>
+        <v>26436</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1229,11 +1229,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>23436</v>
+        <v>26436</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1245,11 +1245,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>23436</v>
+        <v>26436</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1261,11 +1261,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>23436</v>
+        <v>26436</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1277,11 +1277,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>23436</v>
+        <v>26436</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1293,11 +1293,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>23436</v>
+        <v>26436</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1309,11 +1309,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>23436</v>
+        <v>26436</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1325,11 +1325,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>23436</v>
+        <v>26436</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1341,11 +1341,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>23436</v>
+        <v>26436</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1357,11 +1357,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>23436</v>
+        <v>26436</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1373,11 +1373,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>23436</v>
+        <v>26436</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1389,11 +1389,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>23436</v>
+        <v>26436</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,11 +1405,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>23436</v>
+        <v>26436</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1421,11 +1421,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>23436</v>
+        <v>26436</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1437,11 +1437,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>23436</v>
+        <v>26436</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1453,11 +1453,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>23436</v>
+        <v>26436</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1469,11 +1469,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>23436</v>
+        <v>26436</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1485,11 +1485,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>23436</v>
+        <v>26436</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1501,11 +1501,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>23436</v>
+        <v>26436</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1517,11 +1517,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>23436</v>
+        <v>26436</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1533,11 +1533,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>23436</v>
+        <v>26436</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1549,11 +1549,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>23436</v>
+        <v>26436</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1565,11 +1565,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>23436</v>
+        <v>26436</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1581,11 +1581,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>23436</v>
+        <v>26436</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1597,11 +1597,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>23436</v>
+        <v>26436</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1613,11 +1613,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>23436</v>
+        <v>26436</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1630,11 +1630,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>23436</v>
+        <v>26436</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44825</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1655,7 +1655,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>26509</v>
+        <v>29509</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>23436</v>
+        <v>26436</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY WORLD.xlsx
+++ b/IMPORTANT/TOY WORLD.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>DATE</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>CUSTOMER NAME -TOY WORLD</t>
-  </si>
-  <si>
-    <t>INSURANCE</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I38"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1146,46 +1143,38 @@
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7">
-        <v>44803</v>
+        <v>44831</v>
       </c>
       <c r="B5" s="8">
-        <v>29459</v>
+        <v>22740</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7">
-        <v>44824</v>
-      </c>
-      <c r="G5" s="8">
-        <v>3073</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>26386</v>
+        <v>22740</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="8">
-        <v>50</v>
-      </c>
+      <c r="B6" s="8"/>
       <c r="C6" s="50"/>
-      <c r="D6" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="D6" s="9"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>26436</v>
+        <v>22740</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1197,11 +1186,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>26436</v>
+        <v>22740</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1213,11 +1202,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>26436</v>
+        <v>22740</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1229,11 +1218,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>26436</v>
+        <v>22740</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1245,11 +1234,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>26436</v>
+        <v>22740</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1261,11 +1250,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>26436</v>
+        <v>22740</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1277,11 +1266,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>26436</v>
+        <v>22740</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1293,11 +1282,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>26436</v>
+        <v>22740</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1309,11 +1298,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>26436</v>
+        <v>22740</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1325,11 +1314,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>26436</v>
+        <v>22740</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1341,11 +1330,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>26436</v>
+        <v>22740</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1357,11 +1346,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>26436</v>
+        <v>22740</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1373,11 +1362,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>26436</v>
+        <v>22740</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1389,11 +1378,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>26436</v>
+        <v>22740</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,11 +1394,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>26436</v>
+        <v>22740</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1421,11 +1410,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>26436</v>
+        <v>22740</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1437,11 +1426,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>26436</v>
+        <v>22740</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1453,11 +1442,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>26436</v>
+        <v>22740</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1469,11 +1458,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>26436</v>
+        <v>22740</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1485,11 +1474,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>26436</v>
+        <v>22740</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1501,11 +1490,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>26436</v>
+        <v>22740</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1517,11 +1506,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>26436</v>
+        <v>22740</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1533,11 +1522,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>26436</v>
+        <v>22740</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1549,11 +1538,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>26436</v>
+        <v>22740</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1565,11 +1554,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>26436</v>
+        <v>22740</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1581,11 +1570,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>26436</v>
+        <v>22740</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1597,11 +1586,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>26436</v>
+        <v>22740</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1613,11 +1602,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>26436</v>
+        <v>22740</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1630,11 +1619,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>26436</v>
+        <v>22740</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1655,7 +1644,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>29509</v>
+        <v>22740</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1663,7 +1652,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>3073</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1686,7 +1675,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>26436</v>
+        <v>22740</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY WORLD.xlsx
+++ b/IMPORTANT/TOY WORLD.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1158,23 +1158,25 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8">
+        <v>50</v>
+      </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>22740</v>
+        <v>22790</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,11 +1188,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>22740</v>
+        <v>22790</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1202,11 +1204,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>22740</v>
+        <v>22790</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,11 +1220,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>22740</v>
+        <v>22790</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,11 +1236,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>22740</v>
+        <v>22790</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,11 +1252,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>22740</v>
+        <v>22790</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,11 +1268,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>22740</v>
+        <v>22790</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1282,11 +1284,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>22740</v>
+        <v>22790</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,11 +1300,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>22740</v>
+        <v>22790</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,11 +1316,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>22740</v>
+        <v>22790</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,11 +1332,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>22740</v>
+        <v>22790</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,11 +1348,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>22740</v>
+        <v>22790</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,11 +1364,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>22740</v>
+        <v>22790</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,11 +1380,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>22740</v>
+        <v>22790</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,11 +1396,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>22740</v>
+        <v>22790</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,11 +1412,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>22740</v>
+        <v>22790</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,11 +1428,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>22740</v>
+        <v>22790</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,11 +1444,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>22740</v>
+        <v>22790</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,11 +1460,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>22740</v>
+        <v>22790</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,11 +1476,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>22740</v>
+        <v>22790</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,11 +1492,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>22740</v>
+        <v>22790</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,11 +1508,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>22740</v>
+        <v>22790</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,11 +1524,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>22740</v>
+        <v>22790</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,11 +1540,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>22740</v>
+        <v>22790</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,11 +1556,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>22740</v>
+        <v>22790</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,11 +1572,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>22740</v>
+        <v>22790</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,11 +1588,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>22740</v>
+        <v>22790</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,11 +1604,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>22740</v>
+        <v>22790</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,11 +1621,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>22740</v>
+        <v>22790</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1644,7 +1646,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>22740</v>
+        <v>22790</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1675,7 +1677,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>22740</v>
+        <v>22790</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY WORLD.xlsx
+++ b/IMPORTANT/TOY WORLD.xlsx
@@ -1151,32 +1151,34 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="G5" s="8">
+        <v>19357</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>22740</v>
+        <v>240</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="8">
-        <v>50</v>
-      </c>
+      <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="G6" s="8">
+        <v>3143</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>22790</v>
+        <v>240</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44842</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1188,11 +1190,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>22790</v>
+        <v>240</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44842</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1204,11 +1206,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>22790</v>
+        <v>240</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44842</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1220,11 +1222,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>22790</v>
+        <v>240</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44842</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1236,11 +1238,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>22790</v>
+        <v>240</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1252,11 +1254,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>22790</v>
+        <v>240</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1268,11 +1270,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>22790</v>
+        <v>240</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1284,11 +1286,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>22790</v>
+        <v>240</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1300,11 +1302,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>22790</v>
+        <v>240</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1316,11 +1318,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>22790</v>
+        <v>240</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1332,11 +1334,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>22790</v>
+        <v>240</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1348,11 +1350,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>22790</v>
+        <v>240</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1364,11 +1366,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>22790</v>
+        <v>240</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1380,11 +1382,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>22790</v>
+        <v>240</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1396,11 +1398,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>22790</v>
+        <v>240</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1412,11 +1414,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>22790</v>
+        <v>240</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44842</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1428,11 +1430,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>22790</v>
+        <v>240</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1444,11 +1446,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>22790</v>
+        <v>240</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1460,11 +1462,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>22790</v>
+        <v>240</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1476,11 +1478,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>22790</v>
+        <v>240</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1492,11 +1494,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>22790</v>
+        <v>240</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1508,11 +1510,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>22790</v>
+        <v>240</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1524,11 +1526,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>22790</v>
+        <v>240</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1540,11 +1542,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>22790</v>
+        <v>240</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1556,11 +1558,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>22790</v>
+        <v>240</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1572,11 +1574,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>22790</v>
+        <v>240</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1588,11 +1590,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>22790</v>
+        <v>240</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1604,11 +1606,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>22790</v>
+        <v>240</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1621,11 +1623,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>22790</v>
+        <v>240</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44842</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1646,7 +1648,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>22790</v>
+        <v>22740</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1654,7 +1656,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>22500</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1677,7 +1679,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>22790</v>
+        <v>240</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY WORLD.xlsx
+++ b/IMPORTANT/TOY WORLD.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A5" sqref="A5:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1142,25 +1142,19 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44831</v>
-      </c>
-      <c r="B5" s="8">
-        <v>22740</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="8">
-        <v>19357</v>
-      </c>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>48</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1169,16 +1163,14 @@
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="8">
-        <v>3143</v>
-      </c>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44879</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1190,11 +1182,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44879</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1206,11 +1198,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44879</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1222,11 +1214,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44879</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1238,11 +1230,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1254,11 +1246,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1270,11 +1262,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1286,11 +1278,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1302,11 +1294,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1318,11 +1310,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1334,11 +1326,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1350,11 +1342,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1366,11 +1358,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1382,11 +1374,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1398,11 +1390,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1414,11 +1406,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44879</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1430,11 +1422,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1446,11 +1438,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1462,11 +1454,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1478,11 +1470,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1494,11 +1486,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1510,11 +1502,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1526,11 +1518,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1542,11 +1534,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1558,11 +1550,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1574,11 +1566,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1590,11 +1582,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1606,11 +1598,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1623,11 +1615,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44879</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1648,7 +1640,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>22740</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1656,7 +1648,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>22500</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1679,7 +1671,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY WORLD.xlsx
+++ b/IMPORTANT/TOY WORLD.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1142,19 +1142,23 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="7">
+        <v>44876</v>
+      </c>
+      <c r="B5" s="8">
+        <v>3143</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>3143</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44897</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1166,11 +1170,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>0</v>
+        <v>3143</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1182,11 +1186,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>0</v>
+        <v>3143</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1198,11 +1202,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>0</v>
+        <v>3143</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1214,11 +1218,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>3143</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,11 +1234,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3143</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1246,11 +1250,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3143</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1262,11 +1266,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3143</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1278,11 +1282,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3143</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1294,11 +1298,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3143</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1310,11 +1314,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3143</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1326,11 +1330,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3143</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1342,11 +1346,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3143</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1358,11 +1362,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3143</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,11 +1378,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3143</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1390,11 +1394,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3143</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1406,11 +1410,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3143</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,11 +1426,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3143</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1438,11 +1442,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3143</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1454,11 +1458,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3143</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,11 +1474,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3143</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,11 +1490,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3143</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,11 +1506,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3143</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,11 +1522,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3143</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,11 +1538,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3143</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1550,11 +1554,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3143</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,11 +1570,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3143</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,11 +1586,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3143</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,11 +1602,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>0</v>
+        <v>3143</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1615,11 +1619,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3143</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1640,7 +1644,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>0</v>
+        <v>3143</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1671,7 +1675,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>0</v>
+        <v>3143</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY WORLD.xlsx
+++ b/IMPORTANT/TOY WORLD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -385,17 +385,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -414,6 +408,10 @@
     <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
@@ -1073,8 +1071,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
+      <selection sqref="A1:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1158,13 +1156,13 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="50"/>
+      <c r="C6" s="48"/>
       <c r="D6" s="9"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
@@ -1174,15 +1172,15 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44915</v>
+        <v>44933</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="16"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="51"/>
-      <c r="F7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="F7" s="47"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
@@ -1190,7 +1188,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44915</v>
+        <v>44933</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1206,11 +1204,11 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44915</v>
+        <v>44933</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="52"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
@@ -1222,11 +1220,11 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44915</v>
+        <v>44933</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="52"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
@@ -1238,11 +1236,11 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44933</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="52"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="17"/>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
@@ -1254,11 +1252,11 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44933</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="52"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="17"/>
       <c r="C12" s="14"/>
       <c r="D12" s="18"/>
@@ -1270,11 +1268,11 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44933</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="52"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="18"/>
@@ -1286,11 +1284,11 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44933</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="52"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="17"/>
       <c r="C14" s="14"/>
       <c r="D14" s="18"/>
@@ -1302,11 +1300,11 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44933</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="52"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="17"/>
       <c r="C15" s="19"/>
       <c r="D15" s="18"/>
@@ -1318,11 +1316,11 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44933</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="52"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="17"/>
       <c r="C16" s="14"/>
       <c r="D16" s="18"/>
@@ -1334,11 +1332,11 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44933</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="52"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="18"/>
@@ -1350,11 +1348,11 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44933</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="52"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="18"/>
@@ -1366,11 +1364,11 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44933</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="52"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
       <c r="D19" s="18"/>
@@ -1382,11 +1380,11 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44933</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="52"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
       <c r="D20" s="18"/>
@@ -1398,11 +1396,11 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44933</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="52"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
       <c r="D21" s="18"/>
@@ -1414,11 +1412,11 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44915</v>
+        <v>44933</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="52"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="13"/>
       <c r="C22" s="14"/>
       <c r="D22" s="18"/>
@@ -1430,11 +1428,11 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44933</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="52"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
       <c r="D23" s="18"/>
@@ -1446,11 +1444,11 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44933</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="52"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="13"/>
       <c r="C24" s="14"/>
       <c r="D24" s="18"/>
@@ -1462,11 +1460,11 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44933</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="52"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="13"/>
       <c r="C25" s="14"/>
       <c r="D25" s="18"/>
@@ -1478,11 +1476,11 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44933</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="52"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
       <c r="D26" s="18"/>
@@ -1494,11 +1492,11 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44933</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="52"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
       <c r="D27" s="18"/>
@@ -1510,11 +1508,11 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44933</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="52"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
       <c r="D28" s="18"/>
@@ -1526,11 +1524,11 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44933</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="52"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
       <c r="D29" s="18"/>
@@ -1542,11 +1540,11 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44933</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="52"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
       <c r="D30" s="18"/>
@@ -1558,11 +1556,11 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44933</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="52"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
       <c r="D31" s="18"/>
@@ -1574,11 +1572,11 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44933</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="52"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
       <c r="D32" s="18"/>
@@ -1590,11 +1588,11 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44933</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="53"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
       <c r="D33" s="18"/>
@@ -1606,11 +1604,11 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44933</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="54"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="22"/>
       <c r="C34" s="23"/>
       <c r="D34" s="22"/>
@@ -1623,7 +1621,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44915</v>
+        <v>44933</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -2041,229 +2039,325 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="60.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="43"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="53">
+        <v>276846</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
+      <c r="B2" s="53">
+        <v>164</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="53">
+        <v>726</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
+      <c r="B4" s="53">
+        <v>924</v>
+      </c>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="43"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
+      <c r="B5" s="53">
+        <v>200</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="43"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="47"/>
+      <c r="B6" s="53">
+        <v>1200</v>
+      </c>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="43"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47"/>
+      <c r="B7" s="53">
+        <v>5000</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="43"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
+      <c r="B8" s="53">
+        <v>5000</v>
+      </c>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="43"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
+      <c r="B9" s="53">
+        <v>50000</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="43"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
+      <c r="B10" s="53">
+        <v>35000</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="43"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
+      <c r="B11" s="53">
+        <v>10000</v>
+      </c>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="43"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47"/>
+      <c r="B12" s="53">
+        <v>2040</v>
+      </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="43"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
+      <c r="B13" s="53">
+        <v>5000</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="43"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47"/>
+      <c r="B14" s="53">
+        <v>2050</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="46"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="43"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
+      <c r="B15" s="53">
+        <v>444</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="43"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="47"/>
+      <c r="B16" s="53">
+        <v>1900</v>
+      </c>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="46"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="43"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="47"/>
+      <c r="B17" s="53">
+        <v>100</v>
+      </c>
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="46"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="43"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="47"/>
+      <c r="B18" s="53">
+        <v>105</v>
+      </c>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="43"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="47"/>
+      <c r="B19" s="53">
+        <v>252</v>
+      </c>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="46"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="43"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="47"/>
+      <c r="B20" s="53">
+        <v>2375</v>
+      </c>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="46"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="43"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="47"/>
+      <c r="B21" s="53">
+        <v>266</v>
+      </c>
+      <c r="C21" s="44"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="46"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="43"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="47"/>
+      <c r="B22" s="53">
+        <v>110</v>
+      </c>
+      <c r="C22" s="44"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="46"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="43"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="47"/>
+      <c r="B23" s="53">
+        <v>960</v>
+      </c>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="46"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="43"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="47"/>
+      <c r="B24" s="53">
+        <v>550</v>
+      </c>
+      <c r="C24" s="44"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="46"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="43"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="47"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="46"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="43"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="47"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="46"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="43"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="47"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="46"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="43"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="47"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="46"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="43"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="47"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="46"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="43"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="47"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="46"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" s="54"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" s="54"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="54"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="54"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="54"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="54"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="54"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="54"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="54"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="54"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="54"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="54"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="54"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="54"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="54"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="54"/>
     </row>
     <row r="50" spans="4:4">
-      <c r="D50" s="46"/>
+      <c r="D50" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IMPORTANT/TOY WORLD.xlsx
+++ b/IMPORTANT/TOY WORLD.xlsx
@@ -1156,7 +1156,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>57</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44933</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44933</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44933</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44933</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44933</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44933</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44933</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44933</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44933</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44933</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44933</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44933</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44933</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44933</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44933</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44933</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44933</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44933</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44933</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44933</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44933</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44933</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44933</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44933</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44933</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44933</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44933</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44933</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44933</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/TOY WORLD.xlsx
+++ b/IMPORTANT/TOY WORLD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1071,8 +1071,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
-      <selection sqref="A1:I38"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1140,23 +1140,19 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44876</v>
-      </c>
-      <c r="B5" s="8">
-        <v>3143</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>3143</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>80</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1168,11 +1164,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>3143</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1184,11 +1180,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>3143</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1200,11 +1196,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>3143</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1216,11 +1212,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>3143</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1232,11 +1228,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>3143</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1248,11 +1244,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>3143</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1264,11 +1260,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>3143</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1280,11 +1276,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>3143</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1296,11 +1292,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>3143</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1312,11 +1308,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>3143</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1328,11 +1324,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>3143</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1344,11 +1340,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>3143</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1360,11 +1356,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>3143</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1376,11 +1372,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>3143</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1392,11 +1388,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>3143</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1408,11 +1404,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>3143</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1424,11 +1420,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>3143</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1440,11 +1436,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>3143</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1456,11 +1452,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>3143</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1472,11 +1468,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>3143</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1488,11 +1484,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>3143</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1504,11 +1500,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>3143</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1520,11 +1516,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>3143</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1536,11 +1532,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>3143</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1552,11 +1548,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>3143</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1568,11 +1564,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>3143</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1584,11 +1580,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>3143</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1600,11 +1596,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>3143</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1617,11 +1613,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>3143</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1642,7 +1638,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>3143</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1673,7 +1669,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>3143</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
@@ -2039,7 +2035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>

--- a/IMPORTANT/TOY WORLD.xlsx
+++ b/IMPORTANT/TOY WORLD.xlsx
@@ -1152,7 +1152,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45091</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/TOY WORLD.xlsx
+++ b/IMPORTANT/TOY WORLD.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>DATE</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>CUSTOMER NAME -TOY WORLD</t>
+  </si>
+  <si>
+    <t>NEFT</t>
+  </si>
+  <si>
+    <t>CASH BANK OF INDIA</t>
   </si>
 </sst>
 </file>
@@ -418,7 +424,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
-  <dxfs count="71">
+  <dxfs count="68">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -584,21 +590,6 @@
     <dxf>
       <font>
         <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
       </font>
     </dxf>
     <dxf>
@@ -1069,10 +1060,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1088,12 +1079,12 @@
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="E1" s="34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75">
+    <row r="2" spans="1:10" ht="15.75">
       <c r="A2" s="41" t="s">
         <v>11</v>
       </c>
@@ -1104,7 +1095,7 @@
       <c r="F2" s="42"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1">
+    <row r="3" spans="1:10" ht="16.5" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1113,7 +1104,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+    <row r="4" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1139,55 +1130,79 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+    <row r="5" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A5" s="7">
+        <v>45190</v>
+      </c>
+      <c r="B5" s="8">
+        <v>96606</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>45205</v>
+      </c>
+      <c r="G5" s="8">
+        <v>14908</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>32698</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>45125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8">
+        <v>21109</v>
+      </c>
       <c r="C6" s="48"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>45218</v>
+      </c>
+      <c r="G6" s="8">
+        <v>49000</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>0</v>
+        <v>53807</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="47"/>
-      <c r="B7" s="16"/>
+        <v>45226</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A7" s="47">
+        <v>45208</v>
+      </c>
+      <c r="B7" s="16">
+        <v>14040</v>
+      </c>
       <c r="C7" s="9"/>
       <c r="D7" s="49"/>
       <c r="F7" s="47"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>0</v>
+        <v>67847</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="19"/>
@@ -1196,14 +1211,14 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>0</v>
+        <v>67847</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="50"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
@@ -1212,14 +1227,14 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>67847</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="50"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
@@ -1228,14 +1243,14 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67847</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="50"/>
       <c r="B11" s="17"/>
       <c r="C11" s="19"/>
@@ -1244,14 +1259,14 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67847</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="50"/>
       <c r="B12" s="17"/>
       <c r="C12" s="14"/>
@@ -1260,14 +1275,14 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67847</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+        <v>45226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="50"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
@@ -1276,14 +1291,14 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67847</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="50"/>
       <c r="B14" s="17"/>
       <c r="C14" s="14"/>
@@ -1292,14 +1307,14 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67847</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="50"/>
       <c r="B15" s="17"/>
       <c r="C15" s="19"/>
@@ -1308,14 +1323,14 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67847</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="50"/>
       <c r="B16" s="17"/>
       <c r="C16" s="14"/>
@@ -1324,11 +1339,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67847</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45226</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1340,11 +1355,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67847</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45226</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1356,11 +1371,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67847</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45226</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1372,11 +1387,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67847</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45226</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1388,11 +1403,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67847</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45226</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1404,11 +1419,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67847</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45125</v>
+        <v>45226</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1420,11 +1435,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67847</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45226</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1436,11 +1451,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67847</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45226</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1452,11 +1467,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67847</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45226</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1468,11 +1483,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67847</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45226</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1484,11 +1499,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67847</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45226</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1500,11 +1515,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67847</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45226</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1516,11 +1531,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67847</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45226</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1532,11 +1547,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67847</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45226</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1548,11 +1563,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67847</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45226</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1564,11 +1579,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67847</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45226</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1580,11 +1595,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67847</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45226</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1596,11 +1611,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>0</v>
+        <v>67847</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45226</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1613,11 +1628,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67847</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45125</v>
+        <v>45226</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1638,7 +1653,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>0</v>
+        <v>131755</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1646,7 +1661,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>63908</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1669,7 +1684,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>0</v>
+        <v>67847</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
@@ -1678,185 +1693,170 @@
     </row>
     <row r="39" spans="1:9" ht="15.75" thickTop="1"/>
   </sheetData>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="70" priority="71" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="H5:H14 H16:H34">
+    <cfRule type="cellIs" dxfId="67" priority="71" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="69" priority="69" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="69" operator="greaterThan">
       <formula>$H$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="70" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="65" priority="70" operator="greaterThanOrEqual">
       <formula>365</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I34">
-    <cfRule type="cellIs" dxfId="67" priority="68" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="64" priority="68" operator="greaterThanOrEqual">
       <formula>365</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:I34">
-    <cfRule type="cellIs" dxfId="66" priority="66" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="66" operator="lessThan">
       <formula>365</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="67" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="67" operator="greaterThan">
       <formula>365</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="64" priority="65" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="61" priority="65" operator="lessThanOrEqual">
       <formula>$H$33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="63" priority="64" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="60" priority="64" operator="lessThanOrEqual">
       <formula>$H$32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="62" priority="63" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="59" priority="63" operator="lessThanOrEqual">
       <formula>$H$31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="61" priority="62" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="58" priority="62" operator="lessThanOrEqual">
       <formula>$H$30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="60" priority="61" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="57" priority="61" operator="lessThanOrEqual">
       <formula>$H$29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="59" priority="60" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="56" priority="60" operator="lessThanOrEqual">
       <formula>$H$28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="58" priority="59" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="55" priority="59" operator="lessThanOrEqual">
       <formula>$H$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="57" priority="58" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="54" priority="58" operator="lessThanOrEqual">
       <formula>$H$26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="56" priority="57" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="53" priority="57" operator="lessThanOrEqual">
       <formula>$H$25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="55" priority="56" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="52" priority="56" operator="lessThanOrEqual">
       <formula>$H$24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="54" priority="55" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="51" priority="55" operator="lessThanOrEqual">
       <formula>$H$23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="53" priority="54" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="50" priority="54" operator="lessThanOrEqual">
       <formula>$H$22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="52" priority="53" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="49" priority="53" operator="lessThanOrEqual">
       <formula>$H$21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="51" priority="52" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="48" priority="52" operator="lessThanOrEqual">
       <formula>$H$20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="50" priority="51" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="47" priority="51" operator="lessThanOrEqual">
       <formula>$H$19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="49" priority="50" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="46" priority="50" operator="lessThanOrEqual">
       <formula>$H$18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="48" priority="49" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="45" priority="49" operator="lessThanOrEqual">
       <formula>$H$17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="47" priority="48" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="44" priority="48" operator="lessThanOrEqual">
       <formula>$H$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="43" priority="47" operator="lessThanOrEqual">
       <formula>$H$15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="45" priority="46" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="42" priority="46" operator="lessThanOrEqual">
       <formula>$H$13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="44" priority="45" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="41" priority="45" operator="lessThanOrEqual">
       <formula>$H$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="40" priority="44" operator="lessThanOrEqual">
       <formula>$H$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="42" priority="43" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="39" priority="43" operator="lessThanOrEqual">
       <formula>$H$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="38" priority="42" operator="lessThanOrEqual">
       <formula>$H$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="40" priority="41" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="37" priority="41" operator="lessThanOrEqual">
       <formula>$H$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="lessThanOrEqual">
       <formula>$H$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="38" priority="39" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="35" priority="39" operator="lessThanOrEqual">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="34" priority="38" operator="lessThanOrEqual">
       <formula>$H$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6:I34">
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="greaterThanOrEqual">
-      <formula>365</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6:I34">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="greaterThanOrEqual">
-      <formula>365</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H14 H16:H34">
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="lessThanOrEqual">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">

--- a/IMPORTANT/TOY WORLD.xlsx
+++ b/IMPORTANT/TOY WORLD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1062,8 +1062,8 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1132,51 +1132,47 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7">
-        <v>45190</v>
+        <v>45230</v>
       </c>
       <c r="B5" s="8">
-        <v>96606</v>
+        <v>78158</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7">
-        <v>45205</v>
-      </c>
-      <c r="G5" s="8">
-        <v>14908</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>32698</v>
+        <v>78158</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7"/>
+      <c r="A6" s="7">
+        <v>45200</v>
+      </c>
       <c r="B6" s="8">
-        <v>21109</v>
-      </c>
-      <c r="C6" s="48"/>
+        <v>22960</v>
+      </c>
+      <c r="C6" s="48">
+        <v>300</v>
+      </c>
       <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>45218</v>
-      </c>
-      <c r="G6" s="8">
-        <v>49000</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>53807</v>
+        <v>101418</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45226</v>
+        <v>40</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
@@ -1184,10 +1180,10 @@
     </row>
     <row r="7" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
       <c r="A7" s="47">
-        <v>45208</v>
+        <v>45231</v>
       </c>
       <c r="B7" s="16">
-        <v>14040</v>
+        <v>33250</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="49"/>
@@ -1195,11 +1191,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>67847</v>
+        <v>134668</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1211,11 +1207,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>67847</v>
+        <v>134668</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45226</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1227,11 +1223,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>67847</v>
+        <v>134668</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45226</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1243,11 +1239,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>67847</v>
+        <v>134668</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45226</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1259,11 +1255,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>67847</v>
+        <v>134668</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45226</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1275,11 +1271,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>67847</v>
+        <v>134668</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45226</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1291,11 +1287,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>67847</v>
+        <v>134668</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45226</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1307,11 +1303,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>67847</v>
+        <v>134668</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45226</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1323,11 +1319,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>67847</v>
+        <v>134668</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45226</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1339,11 +1335,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>67847</v>
+        <v>134668</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45226</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1355,11 +1351,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>67847</v>
+        <v>134668</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45226</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1371,11 +1367,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>67847</v>
+        <v>134668</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45226</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1387,11 +1383,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>67847</v>
+        <v>134668</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45226</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1403,11 +1399,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>67847</v>
+        <v>134668</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45226</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1419,11 +1415,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>67847</v>
+        <v>134668</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45226</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1435,11 +1431,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>67847</v>
+        <v>134668</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45226</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1451,11 +1447,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>67847</v>
+        <v>134668</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45226</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1467,11 +1463,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>67847</v>
+        <v>134668</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45226</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1483,11 +1479,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>67847</v>
+        <v>134668</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45226</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1499,11 +1495,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>67847</v>
+        <v>134668</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45226</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1515,11 +1511,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>67847</v>
+        <v>134668</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45226</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1531,11 +1527,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>67847</v>
+        <v>134668</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45226</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1547,11 +1543,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>67847</v>
+        <v>134668</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45226</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1563,11 +1559,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>67847</v>
+        <v>134668</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45226</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1579,11 +1575,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>67847</v>
+        <v>134668</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45226</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1595,11 +1591,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>67847</v>
+        <v>134668</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45226</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1611,11 +1607,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>67847</v>
+        <v>134668</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45226</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1628,11 +1624,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>67847</v>
+        <v>134668</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45226</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1653,7 +1649,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>131755</v>
+        <v>134668</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1661,7 +1657,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>63908</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1684,7 +1680,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>67847</v>
+        <v>134668</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
